--- a/src/main/java/org/example/xlsx_files/Flixbus-Booking-report-129005-Own.Solutions-Bimedia.xlsx
+++ b/src/main/java/org/example/xlsx_files/Flixbus-Booking-report-129005-Own.Solutions-Bimedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anavolaric/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\OneDrive\Documents\GitHub\DifferenceFinder\src\main\java\org\example\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9992160-7CB4-1640-8B49-687978D72EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6A76B4-3251-431D-9529-6EBD864FB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1399,30 +1399,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D354" sqref="D354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="90.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" customWidth="1"/>
-    <col min="10" max="10" width="45.83203125" customWidth="1"/>
-    <col min="11" max="11" width="76.83203125" customWidth="1"/>
-    <col min="12" max="12" width="23.83203125" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" customWidth="1"/>
-    <col min="18" max="19" width="11.83203125" customWidth="1"/>
+    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="90.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" customWidth="1"/>
+    <col min="11" max="11" width="76.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="19" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>50.21</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60.44</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>66.02</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>66.95</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>58.58</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>19.059999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>30.68</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>-20.92</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>9.2899999999999991</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>42.77</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -10213,7 +10213,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>30.68</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>45.56</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>32.54</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>9</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>9</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>13.94</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>9</v>
       </c>
@@ -14048,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>9</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>9</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>9</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>20.92</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>60.44</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>32.54</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>72.53</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>59.51</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -15759,7 +15759,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -16467,7 +16467,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>19</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>19</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>19</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>52.07</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>19</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>39.979999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>19</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>46.49</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -19299,7 +19299,7 @@
         <v>23.24</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>54.86</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>56.72</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -19594,7 +19594,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -19653,7 +19653,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>75.319999999999993</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>81.83</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>70.67</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>9</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>9</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>19</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>72.53</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -20715,7 +20715,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>9</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -20892,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>19</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>19</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>9.76</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>19</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>19</v>
       </c>
@@ -21364,7 +21364,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -21423,7 +21423,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>19</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>19</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>19</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>9</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>9</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -22013,7 +22013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>19</v>
       </c>
@@ -22131,7 +22131,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>19</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>28.82</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>26.96</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>129005</v>
       </c>
       <c r="D354">
-        <v>3195092035</v>
+        <v>3195092036</v>
       </c>
       <c r="E354" t="s">
         <v>21</v>
@@ -22308,7 +22308,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>323</v>
       </c>
@@ -22371,7 +22371,7 @@
   <autoFilter ref="A1:S355" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E1:S112 A1:D112 E113:S355 A113:D355" numberStoredAsText="1"/>
+    <ignoredError sqref="E1:S112 A1:D112 E113:S355 A113:D353 A355:D355 A354:C354" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>